--- a/BLL_Atoll/Output/IRFC_VT5074.xlsx
+++ b/BLL_Atoll/Output/IRFC_VT5074.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Sector 3</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>AQU4518R25v18</t>
-  </si>
-  <si>
-    <t>A704517R0v06</t>
   </si>
   <si>
     <t>AntennaMount New</t>
@@ -147,9 +144,6 @@
   </si>
   <si>
     <t>Ry2</t>
-  </si>
-  <si>
-    <t>r</t>
   </si>
   <si>
     <t>BandRange New</t>
@@ -263,7 +257,7 @@
     <t xml:space="preserve"> 5519et-9</t>
   </si>
   <si>
-    <t xml:space="preserve">5905-21 3953-18 </t>
+    <t xml:space="preserve"> 5905-21 3953-18</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -767,16 +761,7 @@
     <t>Sector 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5905-21 3953-18</t>
-  </si>
-  <si>
     <t>Sector 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5519et-9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3953-18 5905-21</t>
   </si>
   <si>
     <t>SiteID</t>
@@ -1049,7 +1034,7 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>2023-10-27</t>
+    <t>2023-11-03</t>
   </si>
   <si>
     <t>SiteName</t>
@@ -1130,19 +1115,19 @@
     <t>RF_Engineer</t>
   </si>
   <si>
-    <t>stefan.velinov</t>
+    <t>Yana.Kusheva</t>
   </si>
   <si>
     <t>Mobile</t>
   </si>
   <si>
-    <t>+359878500157</t>
+    <t>+359878500319</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>stefan.velinov@vivacom.bg</t>
+    <t>Yana.Kusheva@vivacom.bg</t>
   </si>
   <si>
     <t>APM30</t>
@@ -2126,6 +2111,24 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="36" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="39" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2139,24 +2142,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="36" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="39" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3223,13 +3208,13 @@
   <sheetData>
     <row r="2" ht="21">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" s="106" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E2" s="71"/>
       <c r="F2" s="71"/>
@@ -3242,214 +3227,214 @@
     </row>
     <row r="3" ht="20.25">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I3" s="73" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="72" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L3" s="72"/>
       <c r="M3" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="21">
       <c r="A4" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="K4" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="L4" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="M4" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="N4" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="115">
+        <v>63</v>
+      </c>
+      <c r="E5" s="109">
         <v>1</v>
       </c>
-      <c r="F5" s="114">
+      <c r="F5" s="108">
         <v>1</v>
       </c>
-      <c r="G5" s="117">
-        <v>2</v>
-      </c>
-      <c r="H5" s="115">
+      <c r="G5" s="111">
+        <v>1</v>
+      </c>
+      <c r="H5" s="109">
         <v>0</v>
       </c>
-      <c r="I5" s="117">
+      <c r="I5" s="111">
         <v>1</v>
       </c>
-      <c r="J5" s="117">
+      <c r="J5" s="111">
         <v>1</v>
       </c>
-      <c r="K5" s="116">
+      <c r="K5" s="110">
         <v>1</v>
       </c>
-      <c r="L5" s="117">
+      <c r="L5" s="111">
         <v>1</v>
       </c>
-      <c r="M5" s="118">
+      <c r="M5" s="112">
         <v>0</v>
       </c>
-      <c r="N5" s="118">
+      <c r="N5" s="112">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B6" s="107" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="109">
-        <v>2</v>
-      </c>
-      <c r="F6" s="108">
-        <v>2</v>
-      </c>
-      <c r="G6" s="111">
-        <v>2</v>
-      </c>
-      <c r="H6" s="109">
+        <v>64</v>
+      </c>
+      <c r="E6" s="115">
+        <v>1</v>
+      </c>
+      <c r="F6" s="114">
+        <v>1</v>
+      </c>
+      <c r="G6" s="117">
+        <v>1</v>
+      </c>
+      <c r="H6" s="115">
         <v>0</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="117">
         <v>1</v>
       </c>
-      <c r="J6" s="111">
+      <c r="J6" s="117">
         <v>1</v>
       </c>
-      <c r="K6" s="110">
+      <c r="K6" s="116">
         <v>1</v>
       </c>
-      <c r="L6" s="111">
+      <c r="L6" s="117">
         <v>1</v>
       </c>
-      <c r="M6" s="112">
+      <c r="M6" s="118">
         <v>0</v>
       </c>
-      <c r="N6" s="112">
+      <c r="N6" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="109">
-        <v>2</v>
-      </c>
-      <c r="F7" s="108">
-        <v>2</v>
-      </c>
-      <c r="G7" s="111">
-        <v>2</v>
-      </c>
-      <c r="H7" s="109">
+      <c r="E7" s="115">
+        <v>1</v>
+      </c>
+      <c r="F7" s="114">
+        <v>1</v>
+      </c>
+      <c r="G7" s="117">
+        <v>1</v>
+      </c>
+      <c r="H7" s="115">
         <v>0</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="117">
         <v>1</v>
       </c>
-      <c r="J7" s="111">
+      <c r="J7" s="117">
         <v>1</v>
       </c>
-      <c r="K7" s="110">
+      <c r="K7" s="116">
         <v>1</v>
       </c>
-      <c r="L7" s="111">
+      <c r="L7" s="117">
         <v>1</v>
       </c>
-      <c r="M7" s="112">
+      <c r="M7" s="118">
         <v>0</v>
       </c>
-      <c r="N7" s="112">
+      <c r="N7" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="38" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E8" s="54"/>
       <c r="F8" s="29"/>
@@ -3464,14 +3449,14 @@
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="38" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E9" s="54"/>
       <c r="F9" s="29"/>
@@ -3486,12 +3471,12 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="30"/>
       <c r="D10" s="38" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="41"/>
@@ -3506,14 +3491,14 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B11" s="107">
         <v>43.05320306</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="41"/>
@@ -3528,14 +3513,14 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B12" s="107">
         <v>24.74778362</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="38" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E12" s="55"/>
       <c r="F12" s="41"/>
@@ -3550,14 +3535,14 @@
     </row>
     <row r="13" ht="13.5">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="39" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="44"/>
@@ -3572,7 +3557,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B14" s="107">
         <v>27</v>
@@ -3580,49 +3565,49 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B19" s="107" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3638,7 +3623,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BFE09CE-EFF2-4037-B69F-FBEF19244BCB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94739872-EEE3-47EA-9A4E-8B5C7BB879C1}">
           <x14:formula1>
             <xm:f>DataValidation!$A$3:$A$8</xm:f>
           </x14:formula1>
@@ -3673,7 +3658,7 @@
       <c r="A1" s="77"/>
       <c r="B1" s="78"/>
       <c r="C1" s="75" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
@@ -3793,7 +3778,7 @@
     <row r="6" ht="15.75">
       <c r="A6" s="82"/>
       <c r="B6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="91"/>
       <c r="D6" s="92"/>
@@ -3815,7 +3800,7 @@
     <row r="7" ht="15.75">
       <c r="A7" s="82"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="89"/>
       <c r="D7" s="90"/>
@@ -3837,7 +3822,7 @@
     <row r="8" ht="15.75">
       <c r="A8" s="82"/>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
@@ -3859,7 +3844,7 @@
     <row r="9" ht="15.75">
       <c r="A9" s="82"/>
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="95"/>
@@ -3881,61 +3866,61 @@
     <row r="10" ht="15">
       <c r="A10" s="82"/>
       <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="H10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="M10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="47" t="s">
-        <v>15</v>
-      </c>
       <c r="P10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="R10" s="47" t="s">
         <v>14</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.75">
       <c r="A11" s="82"/>
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -3957,7 +3942,7 @@
     <row r="12" ht="15.75">
       <c r="A12" s="82"/>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -3979,7 +3964,7 @@
     <row r="13" ht="15.75">
       <c r="A13" s="82"/>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -4001,7 +3986,7 @@
     <row r="14" ht="15.75">
       <c r="A14" s="82"/>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -4023,7 +4008,7 @@
     <row r="15" ht="15.75">
       <c r="A15" s="82"/>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -4045,7 +4030,7 @@
     <row r="16" ht="15.75">
       <c r="A16" s="82"/>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4067,7 +4052,7 @@
     <row r="17" ht="15.75">
       <c r="A17" s="82"/>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -4089,7 +4074,7 @@
     <row r="18" ht="15.75">
       <c r="A18" s="82"/>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4111,7 +4096,7 @@
     <row r="19" ht="15.75">
       <c r="A19" s="82"/>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4133,7 +4118,7 @@
     <row r="20" ht="15.75">
       <c r="A20" s="82"/>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -4155,7 +4140,7 @@
     <row r="21" ht="15.75">
       <c r="A21" s="82"/>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -4177,7 +4162,7 @@
     <row r="22" ht="15.75">
       <c r="A22" s="82"/>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -4199,7 +4184,7 @@
     <row r="23" ht="15.75">
       <c r="A23" s="82"/>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -4221,7 +4206,7 @@
     <row r="24" ht="15.75">
       <c r="A24" s="82"/>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -4243,7 +4228,7 @@
     <row r="25" ht="15.75">
       <c r="A25" s="82"/>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -4265,7 +4250,7 @@
     <row r="26" ht="15.75">
       <c r="A26" s="82"/>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -4287,7 +4272,7 @@
     <row r="27" ht="15.75">
       <c r="A27" s="82"/>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -4309,7 +4294,7 @@
     <row r="28" ht="15.75">
       <c r="A28" s="82"/>
       <c r="B28" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -4331,7 +4316,7 @@
     <row r="29" ht="15.75">
       <c r="A29" s="82"/>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -4353,7 +4338,7 @@
     <row r="30" ht="15.75">
       <c r="A30" s="69"/>
       <c r="B30" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -4375,7 +4360,7 @@
     <row r="31" ht="15.75">
       <c r="A31" s="69"/>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -4397,7 +4382,7 @@
     <row r="32" ht="15.75">
       <c r="A32" s="82"/>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -4419,7 +4404,7 @@
     <row r="33" ht="15.75">
       <c r="A33" s="82"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -4441,7 +4426,7 @@
     <row r="34" ht="15.75">
       <c r="A34" s="82"/>
       <c r="B34" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -4463,7 +4448,7 @@
     <row r="35" ht="15.75">
       <c r="A35" s="27"/>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -4484,7 +4469,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="96"/>
       <c r="C36" s="97"/>
@@ -4665,37 +4650,37 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="25" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4731,7 +4716,7 @@
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
@@ -4841,9 +4826,7 @@
       <c r="F5" s="90"/>
       <c r="G5" s="90"/>
       <c r="H5" s="90"/>
-      <c r="I5" s="89" t="s">
-        <v>6</v>
-      </c>
+      <c r="I5" s="89"/>
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
       <c r="L5" s="93"/>
@@ -4857,10 +4840,10 @@
     <row r="6" ht="15.75">
       <c r="A6" s="82"/>
       <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="91" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>8</v>
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="92"/>
@@ -4881,7 +4864,7 @@
     <row r="7" ht="15.75">
       <c r="A7" s="82"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="89">
         <v>27</v>
@@ -4891,9 +4874,7 @@
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="93"/>
-      <c r="I7" s="92">
-        <v>0</v>
-      </c>
+      <c r="I7" s="92"/>
       <c r="J7" s="92"/>
       <c r="K7" s="92"/>
       <c r="L7" s="105"/>
@@ -4907,7 +4888,7 @@
     <row r="8" ht="15.75">
       <c r="A8" s="82"/>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
@@ -4929,7 +4910,7 @@
     <row r="9" ht="15.75">
       <c r="A9" s="82"/>
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="94">
         <v>0</v>
@@ -4939,9 +4920,7 @@
       <c r="F9" s="95"/>
       <c r="G9" s="95"/>
       <c r="H9" s="95"/>
-      <c r="I9" s="89">
-        <v>0</v>
-      </c>
+      <c r="I9" s="89"/>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="93"/>
@@ -4955,79 +4934,77 @@
     <row r="10" ht="15">
       <c r="A10" s="82"/>
       <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="H10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="M10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="47" t="s">
-        <v>15</v>
-      </c>
       <c r="P10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="R10" s="47" t="s">
         <v>14</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.75">
       <c r="A11" s="82"/>
       <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="59"/>
-      <c r="I11" s="63" t="s">
-        <v>24</v>
-      </c>
+      <c r="I11" s="63"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -5041,25 +5018,23 @@
     <row r="12" ht="15.75">
       <c r="A12" s="82"/>
       <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -5073,7 +5048,7 @@
     <row r="13" ht="15.75">
       <c r="A13" s="82"/>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -5095,7 +5070,7 @@
     <row r="14" ht="15.75">
       <c r="A14" s="82"/>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -5117,25 +5092,23 @@
     <row r="15" ht="15.75">
       <c r="A15" s="82"/>
       <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="E15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -5149,7 +5122,7 @@
     <row r="16" ht="15.75">
       <c r="A16" s="82"/>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16">
         <v>0</v>
@@ -5165,9 +5138,7 @@
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
+      <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -5181,7 +5152,7 @@
     <row r="17" ht="15.75">
       <c r="A17" s="82"/>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -5203,15 +5174,15 @@
     <row r="18" ht="15.75">
       <c r="A18" s="82"/>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -5229,7 +5200,7 @@
     <row r="19" ht="15.75">
       <c r="A19" s="82"/>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="16">
         <v>0</v>
@@ -5245,9 +5216,7 @@
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
+      <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -5261,15 +5230,15 @@
     <row r="20" ht="15.75">
       <c r="A20" s="82"/>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -5287,7 +5256,7 @@
     <row r="21" ht="15.75">
       <c r="A21" s="82"/>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="16">
         <v>0</v>
@@ -5303,9 +5272,7 @@
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
+      <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -5319,7 +5286,7 @@
     <row r="22" ht="15.75">
       <c r="A22" s="82"/>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -5341,7 +5308,7 @@
     <row r="23" ht="15.75">
       <c r="A23" s="82"/>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -5363,7 +5330,7 @@
     <row r="24" ht="15.75">
       <c r="A24" s="82"/>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="16">
         <v>0</v>
@@ -5379,9 +5346,7 @@
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="16">
-        <v>0</v>
-      </c>
+      <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -5395,15 +5360,15 @@
     <row r="25" ht="15.75">
       <c r="A25" s="82"/>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -5421,7 +5386,7 @@
     <row r="26" ht="15.75">
       <c r="A26" s="82"/>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
@@ -5437,9 +5402,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="16">
-        <v>0</v>
-      </c>
+      <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -5453,15 +5416,15 @@
     <row r="27" ht="15.75">
       <c r="A27" s="82"/>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -5479,7 +5442,7 @@
     <row r="28" ht="15.75">
       <c r="A28" s="82"/>
       <c r="B28" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16">
         <v>0</v>
@@ -5495,9 +5458,7 @@
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="16">
-        <v>0</v>
-      </c>
+      <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
@@ -5511,15 +5472,15 @@
     <row r="29" ht="15.75">
       <c r="A29" s="82"/>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -5537,7 +5498,7 @@
     <row r="30" ht="15.75">
       <c r="A30" s="64"/>
       <c r="B30" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="16">
         <v>0</v>
@@ -5553,9 +5514,7 @@
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="16">
-        <v>0</v>
-      </c>
+      <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
@@ -5569,15 +5528,15 @@
     <row r="31" ht="15.75">
       <c r="A31" s="64"/>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -5595,15 +5554,15 @@
     <row r="32" ht="15.75">
       <c r="A32" s="82"/>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -5621,15 +5580,15 @@
     <row r="33" ht="15.75">
       <c r="A33" s="82"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -5647,15 +5606,15 @@
     <row r="34" ht="15.75">
       <c r="A34" s="82"/>
       <c r="B34" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -5673,7 +5632,7 @@
     <row r="35" ht="15.75">
       <c r="A35" s="27"/>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="16">
         <v>0</v>
@@ -5689,9 +5648,7 @@
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="16">
-        <v>0</v>
-      </c>
+      <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -5704,7 +5661,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="113"/>
       <c r="C36" s="97"/>
@@ -5896,7 +5853,7 @@
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="75" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
@@ -6006,9 +5963,7 @@
       <c r="F5" s="90"/>
       <c r="G5" s="90"/>
       <c r="H5" s="90"/>
-      <c r="I5" s="89" t="s">
-        <v>6</v>
-      </c>
+      <c r="I5" s="89"/>
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
       <c r="L5" s="93"/>
@@ -6022,10 +5977,10 @@
     <row r="6" ht="15.75">
       <c r="A6" s="82"/>
       <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="91" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>8</v>
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="92"/>
@@ -6046,7 +6001,7 @@
     <row r="7" ht="15.75">
       <c r="A7" s="82"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="89">
         <v>27</v>
@@ -6056,9 +6011,7 @@
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="93"/>
-      <c r="I7" s="92">
-        <v>0</v>
-      </c>
+      <c r="I7" s="92"/>
       <c r="J7" s="92"/>
       <c r="K7" s="92"/>
       <c r="L7" s="105"/>
@@ -6072,7 +6025,7 @@
     <row r="8" ht="15.75">
       <c r="A8" s="82"/>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
@@ -6094,7 +6047,7 @@
     <row r="9" ht="15.75">
       <c r="A9" s="82"/>
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="94">
         <v>0</v>
@@ -6104,9 +6057,7 @@
       <c r="F9" s="95"/>
       <c r="G9" s="95"/>
       <c r="H9" s="95"/>
-      <c r="I9" s="89">
-        <v>0</v>
-      </c>
+      <c r="I9" s="89"/>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="93"/>
@@ -6120,79 +6071,77 @@
     <row r="10" ht="15">
       <c r="A10" s="82"/>
       <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="H10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="M10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="47" t="s">
-        <v>15</v>
-      </c>
       <c r="P10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="R10" s="47" t="s">
         <v>14</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.75">
       <c r="A11" s="82"/>
       <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="59"/>
-      <c r="I11" s="63" t="s">
-        <v>24</v>
-      </c>
+      <c r="I11" s="63"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -6206,25 +6155,23 @@
     <row r="12" ht="15.75">
       <c r="A12" s="82"/>
       <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -6238,7 +6185,7 @@
     <row r="13" ht="15.75">
       <c r="A13" s="82"/>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -6260,7 +6207,7 @@
     <row r="14" ht="15.75">
       <c r="A14" s="82"/>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -6282,25 +6229,23 @@
     <row r="15" ht="15.75">
       <c r="A15" s="82"/>
       <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="E15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -6314,7 +6259,7 @@
     <row r="16" ht="15.75">
       <c r="A16" s="82"/>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16">
         <v>0</v>
@@ -6330,9 +6275,7 @@
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
+      <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -6346,7 +6289,7 @@
     <row r="17" ht="15.75">
       <c r="A17" s="82"/>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -6368,15 +6311,15 @@
     <row r="18" ht="15.75">
       <c r="A18" s="82"/>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -6394,7 +6337,7 @@
     <row r="19" ht="15.75">
       <c r="A19" s="82"/>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="16">
         <v>0</v>
@@ -6410,9 +6353,7 @@
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
+      <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -6426,15 +6367,15 @@
     <row r="20" ht="15.75">
       <c r="A20" s="82"/>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -6452,7 +6393,7 @@
     <row r="21" ht="15.75">
       <c r="A21" s="82"/>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="16">
         <v>0</v>
@@ -6468,9 +6409,7 @@
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
+      <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -6484,7 +6423,7 @@
     <row r="22" ht="15.75">
       <c r="A22" s="82"/>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -6506,7 +6445,7 @@
     <row r="23" ht="15.75">
       <c r="A23" s="82"/>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -6528,7 +6467,7 @@
     <row r="24" ht="15.75">
       <c r="A24" s="82"/>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="16">
         <v>0</v>
@@ -6544,9 +6483,7 @@
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="16">
-        <v>0</v>
-      </c>
+      <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -6560,15 +6497,15 @@
     <row r="25" ht="15.75">
       <c r="A25" s="82"/>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -6586,7 +6523,7 @@
     <row r="26" ht="15.75">
       <c r="A26" s="82"/>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
@@ -6602,9 +6539,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="16">
-        <v>0</v>
-      </c>
+      <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -6618,15 +6553,15 @@
     <row r="27" ht="15.75">
       <c r="A27" s="82"/>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -6644,7 +6579,7 @@
     <row r="28" ht="15.75">
       <c r="A28" s="82"/>
       <c r="B28" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16">
         <v>0</v>
@@ -6660,9 +6595,7 @@
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="16">
-        <v>0</v>
-      </c>
+      <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
@@ -6676,15 +6609,15 @@
     <row r="29" ht="15.75">
       <c r="A29" s="82"/>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -6702,7 +6635,7 @@
     <row r="30" ht="15.75">
       <c r="A30" s="69"/>
       <c r="B30" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="16">
         <v>0</v>
@@ -6718,9 +6651,7 @@
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="16">
-        <v>0</v>
-      </c>
+      <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
@@ -6734,15 +6665,15 @@
     <row r="31" ht="15.75">
       <c r="A31" s="69"/>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -6760,15 +6691,15 @@
     <row r="32" ht="15.75">
       <c r="A32" s="82"/>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -6786,15 +6717,15 @@
     <row r="33" ht="15.75">
       <c r="A33" s="82"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -6812,15 +6743,15 @@
     <row r="34" ht="15.75">
       <c r="A34" s="82"/>
       <c r="B34" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -6838,7 +6769,7 @@
     <row r="35" ht="15.75">
       <c r="A35" s="27"/>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="16">
         <v>0</v>
@@ -6854,9 +6785,7 @@
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="16">
-        <v>0</v>
-      </c>
+      <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -6869,7 +6798,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="113"/>
       <c r="C36" s="97"/>
@@ -7171,9 +7100,7 @@
       <c r="F5" s="90"/>
       <c r="G5" s="90"/>
       <c r="H5" s="90"/>
-      <c r="I5" s="89" t="s">
-        <v>6</v>
-      </c>
+      <c r="I5" s="89"/>
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
       <c r="L5" s="93"/>
@@ -7187,10 +7114,10 @@
     <row r="6" ht="15.75">
       <c r="A6" s="82"/>
       <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="91" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>8</v>
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="92"/>
@@ -7211,7 +7138,7 @@
     <row r="7" ht="15.75">
       <c r="A7" s="82"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="89">
         <v>27</v>
@@ -7221,9 +7148,7 @@
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="93"/>
-      <c r="I7" s="92">
-        <v>0</v>
-      </c>
+      <c r="I7" s="92"/>
       <c r="J7" s="92"/>
       <c r="K7" s="92"/>
       <c r="L7" s="105"/>
@@ -7237,7 +7162,7 @@
     <row r="8" ht="15.75">
       <c r="A8" s="82"/>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
@@ -7259,7 +7184,7 @@
     <row r="9" ht="15.75">
       <c r="A9" s="82"/>
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="94">
         <v>0</v>
@@ -7269,9 +7194,7 @@
       <c r="F9" s="95"/>
       <c r="G9" s="95"/>
       <c r="H9" s="95"/>
-      <c r="I9" s="89">
-        <v>0</v>
-      </c>
+      <c r="I9" s="89"/>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="93"/>
@@ -7285,79 +7208,77 @@
     <row r="10" ht="15">
       <c r="A10" s="82"/>
       <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="H10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="M10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="47" t="s">
-        <v>15</v>
-      </c>
       <c r="P10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="R10" s="47" t="s">
         <v>14</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.75">
       <c r="A11" s="82"/>
       <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="59"/>
-      <c r="I11" s="63" t="s">
-        <v>24</v>
-      </c>
+      <c r="I11" s="63"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -7371,25 +7292,23 @@
     <row r="12" ht="15.75">
       <c r="A12" s="82"/>
       <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -7403,7 +7322,7 @@
     <row r="13" ht="15.75">
       <c r="A13" s="82"/>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -7425,7 +7344,7 @@
     <row r="14" ht="15.75">
       <c r="A14" s="82"/>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -7447,25 +7366,23 @@
     <row r="15" ht="15.75">
       <c r="A15" s="82"/>
       <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="E15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -7479,7 +7396,7 @@
     <row r="16" ht="15.75">
       <c r="A16" s="82"/>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16">
         <v>0</v>
@@ -7495,9 +7412,7 @@
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
+      <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -7511,7 +7426,7 @@
     <row r="17" ht="15.75">
       <c r="A17" s="82"/>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -7533,15 +7448,15 @@
     <row r="18" ht="15.75">
       <c r="A18" s="82"/>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -7559,7 +7474,7 @@
     <row r="19" ht="15.75">
       <c r="A19" s="82"/>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="16">
         <v>0</v>
@@ -7575,9 +7490,7 @@
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
+      <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -7591,15 +7504,15 @@
     <row r="20" ht="15.75">
       <c r="A20" s="82"/>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -7617,7 +7530,7 @@
     <row r="21" ht="15.75">
       <c r="A21" s="82"/>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="16">
         <v>0</v>
@@ -7633,9 +7546,7 @@
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
+      <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -7649,7 +7560,7 @@
     <row r="22" ht="15.75">
       <c r="A22" s="82"/>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -7671,7 +7582,7 @@
     <row r="23" ht="15.75">
       <c r="A23" s="82"/>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -7693,7 +7604,7 @@
     <row r="24" ht="15.75">
       <c r="A24" s="82"/>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="16">
         <v>0</v>
@@ -7709,9 +7620,7 @@
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="16">
-        <v>0</v>
-      </c>
+      <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -7725,15 +7634,15 @@
     <row r="25" ht="15.75">
       <c r="A25" s="82"/>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -7751,7 +7660,7 @@
     <row r="26" ht="15.75">
       <c r="A26" s="82"/>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
@@ -7767,9 +7676,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="16">
-        <v>0</v>
-      </c>
+      <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -7783,15 +7690,15 @@
     <row r="27" ht="15.75">
       <c r="A27" s="82"/>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -7809,7 +7716,7 @@
     <row r="28" ht="15.75">
       <c r="A28" s="82"/>
       <c r="B28" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16">
         <v>0</v>
@@ -7825,9 +7732,7 @@
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="16">
-        <v>0</v>
-      </c>
+      <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
@@ -7841,15 +7746,15 @@
     <row r="29" ht="15.75">
       <c r="A29" s="82"/>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -7867,7 +7772,7 @@
     <row r="30" ht="15.75">
       <c r="A30" s="69"/>
       <c r="B30" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="16">
         <v>0</v>
@@ -7883,9 +7788,7 @@
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="16">
-        <v>0</v>
-      </c>
+      <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
@@ -7899,15 +7802,15 @@
     <row r="31" ht="15.75">
       <c r="A31" s="69"/>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -7925,15 +7828,15 @@
     <row r="32" ht="15.75">
       <c r="A32" s="82"/>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -7951,15 +7854,15 @@
     <row r="33" ht="15.75">
       <c r="A33" s="82"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -7977,15 +7880,15 @@
     <row r="34" ht="15.75">
       <c r="A34" s="82"/>
       <c r="B34" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -8003,7 +7906,7 @@
     <row r="35" ht="15.75">
       <c r="A35" s="27"/>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="16">
         <v>0</v>
@@ -8019,9 +7922,7 @@
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="16">
-        <v>0</v>
-      </c>
+      <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -8034,7 +7935,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="113"/>
       <c r="C36" s="97"/>
@@ -8223,7 +8124,7 @@
       <c r="A1" s="77"/>
       <c r="B1" s="78"/>
       <c r="C1" s="75" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
@@ -8346,7 +8247,7 @@
     <row r="6" ht="15.75">
       <c r="A6" s="82"/>
       <c r="B6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="91"/>
       <c r="D6" s="92"/>
@@ -8368,7 +8269,7 @@
     <row r="7" ht="15.75">
       <c r="A7" s="82"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="89"/>
       <c r="D7" s="90"/>
@@ -8390,7 +8291,7 @@
     <row r="8" ht="15.75">
       <c r="A8" s="82"/>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
@@ -8412,7 +8313,7 @@
     <row r="9" ht="15.75">
       <c r="A9" s="82"/>
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="95"/>
@@ -8434,61 +8335,61 @@
     <row r="10" ht="15">
       <c r="A10" s="82"/>
       <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="H10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="M10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="47" t="s">
-        <v>15</v>
-      </c>
       <c r="P10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="R10" s="47" t="s">
         <v>14</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.75">
       <c r="A11" s="82"/>
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -8510,7 +8411,7 @@
     <row r="12" ht="15.75">
       <c r="A12" s="82"/>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -8532,7 +8433,7 @@
     <row r="13" ht="15.75">
       <c r="A13" s="82"/>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -8554,7 +8455,7 @@
     <row r="14" ht="15.75">
       <c r="A14" s="82"/>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -8576,7 +8477,7 @@
     <row r="15" ht="15.75">
       <c r="A15" s="82"/>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -8598,7 +8499,7 @@
     <row r="16" ht="15.75">
       <c r="A16" s="82"/>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -8620,7 +8521,7 @@
     <row r="17" ht="15.75">
       <c r="A17" s="82"/>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -8642,7 +8543,7 @@
     <row r="18" ht="15.75">
       <c r="A18" s="82"/>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -8664,7 +8565,7 @@
     <row r="19" ht="15.75">
       <c r="A19" s="82"/>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -8686,7 +8587,7 @@
     <row r="20" ht="15.75">
       <c r="A20" s="82"/>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -8708,7 +8609,7 @@
     <row r="21" ht="15.75">
       <c r="A21" s="82"/>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -8730,7 +8631,7 @@
     <row r="22" ht="15.75">
       <c r="A22" s="82"/>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -8752,7 +8653,7 @@
     <row r="23" ht="15.75">
       <c r="A23" s="82"/>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -8774,7 +8675,7 @@
     <row r="24" ht="15.75">
       <c r="A24" s="82"/>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -8796,7 +8697,7 @@
     <row r="25" ht="15.75">
       <c r="A25" s="82"/>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -8818,7 +8719,7 @@
     <row r="26" ht="15.75">
       <c r="A26" s="82"/>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -8840,7 +8741,7 @@
     <row r="27" ht="15.75">
       <c r="A27" s="82"/>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -8862,7 +8763,7 @@
     <row r="28" ht="15.75">
       <c r="A28" s="82"/>
       <c r="B28" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -8884,7 +8785,7 @@
     <row r="29" ht="15.75">
       <c r="A29" s="82"/>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -8906,7 +8807,7 @@
     <row r="30" ht="15.75">
       <c r="A30" s="69"/>
       <c r="B30" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -8928,7 +8829,7 @@
     <row r="31" ht="15.75">
       <c r="A31" s="69"/>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -8950,7 +8851,7 @@
     <row r="32" ht="15.75">
       <c r="A32" s="82"/>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -8972,7 +8873,7 @@
     <row r="33" ht="15.75">
       <c r="A33" s="82"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -8994,7 +8895,7 @@
     <row r="34" ht="15.75">
       <c r="A34" s="82"/>
       <c r="B34" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -9016,7 +8917,7 @@
     <row r="35" ht="15.75">
       <c r="A35" s="27"/>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -9037,7 +8938,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="96"/>
       <c r="C36" s="97"/>
@@ -9226,7 +9127,7 @@
       <c r="A1" s="77"/>
       <c r="B1" s="78"/>
       <c r="C1" s="75" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
@@ -9346,7 +9247,7 @@
     <row r="6" ht="15.75">
       <c r="A6" s="82"/>
       <c r="B6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="91"/>
       <c r="D6" s="92"/>
@@ -9368,7 +9269,7 @@
     <row r="7" ht="15.75">
       <c r="A7" s="82"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="89"/>
       <c r="D7" s="90"/>
@@ -9390,7 +9291,7 @@
     <row r="8" ht="15.75">
       <c r="A8" s="82"/>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
@@ -9412,7 +9313,7 @@
     <row r="9" ht="15.75">
       <c r="A9" s="82"/>
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="95"/>
@@ -9434,61 +9335,61 @@
     <row r="10" ht="15">
       <c r="A10" s="82"/>
       <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="H10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="M10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="47" t="s">
-        <v>15</v>
-      </c>
       <c r="P10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="R10" s="47" t="s">
         <v>14</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.75">
       <c r="A11" s="82"/>
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -9510,7 +9411,7 @@
     <row r="12" ht="15.75">
       <c r="A12" s="82"/>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -9532,7 +9433,7 @@
     <row r="13" ht="15.75">
       <c r="A13" s="82"/>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -9554,7 +9455,7 @@
     <row r="14" ht="15.75">
       <c r="A14" s="82"/>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -9576,7 +9477,7 @@
     <row r="15" ht="15.75">
       <c r="A15" s="82"/>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -9598,7 +9499,7 @@
     <row r="16" ht="15.75">
       <c r="A16" s="82"/>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -9620,7 +9521,7 @@
     <row r="17" ht="15.75">
       <c r="A17" s="82"/>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -9642,7 +9543,7 @@
     <row r="18" ht="15.75">
       <c r="A18" s="82"/>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -9664,7 +9565,7 @@
     <row r="19" ht="15.75">
       <c r="A19" s="82"/>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -9686,7 +9587,7 @@
     <row r="20" ht="15.75">
       <c r="A20" s="82"/>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -9708,7 +9609,7 @@
     <row r="21" ht="15.75">
       <c r="A21" s="82"/>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -9730,7 +9631,7 @@
     <row r="22" ht="15.75">
       <c r="A22" s="82"/>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -9752,7 +9653,7 @@
     <row r="23" ht="15.75">
       <c r="A23" s="82"/>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -9774,7 +9675,7 @@
     <row r="24" ht="15.75">
       <c r="A24" s="82"/>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -9796,7 +9697,7 @@
     <row r="25" ht="15.75">
       <c r="A25" s="82"/>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -9818,7 +9719,7 @@
     <row r="26" ht="15.75">
       <c r="A26" s="82"/>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -9840,7 +9741,7 @@
     <row r="27" ht="15.75">
       <c r="A27" s="82"/>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -9862,7 +9763,7 @@
     <row r="28" ht="15.75">
       <c r="A28" s="82"/>
       <c r="B28" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -9884,7 +9785,7 @@
     <row r="29" ht="15.75">
       <c r="A29" s="82"/>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -9906,7 +9807,7 @@
     <row r="30" ht="15.75">
       <c r="A30" s="69"/>
       <c r="B30" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -9928,7 +9829,7 @@
     <row r="31" ht="15.75">
       <c r="A31" s="69"/>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -9950,7 +9851,7 @@
     <row r="32" ht="15.75">
       <c r="A32" s="82"/>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -9972,7 +9873,7 @@
     <row r="33" ht="15.75">
       <c r="A33" s="82"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -9994,7 +9895,7 @@
     <row r="34" ht="15.75">
       <c r="A34" s="82"/>
       <c r="B34" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -10016,7 +9917,7 @@
     <row r="35" ht="15.75">
       <c r="A35" s="27"/>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -10037,7 +9938,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="96"/>
       <c r="C36" s="97"/>
@@ -10226,7 +10127,7 @@
       <c r="A1" s="77"/>
       <c r="B1" s="78"/>
       <c r="C1" s="75" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
@@ -10346,7 +10247,7 @@
     <row r="6" ht="15.75">
       <c r="A6" s="82"/>
       <c r="B6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="91"/>
       <c r="D6" s="92"/>
@@ -10368,7 +10269,7 @@
     <row r="7" ht="15.75">
       <c r="A7" s="82"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="89"/>
       <c r="D7" s="90"/>
@@ -10390,7 +10291,7 @@
     <row r="8" ht="15.75">
       <c r="A8" s="82"/>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
@@ -10412,7 +10313,7 @@
     <row r="9" ht="15.75">
       <c r="A9" s="82"/>
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="95"/>
@@ -10434,61 +10335,61 @@
     <row r="10" ht="15">
       <c r="A10" s="82"/>
       <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="H10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="M10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="47" t="s">
-        <v>15</v>
-      </c>
       <c r="P10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="R10" s="47" t="s">
         <v>14</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.75">
       <c r="A11" s="82"/>
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -10510,7 +10411,7 @@
     <row r="12" ht="15.75">
       <c r="A12" s="82"/>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -10532,7 +10433,7 @@
     <row r="13" ht="15.75">
       <c r="A13" s="82"/>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -10554,7 +10455,7 @@
     <row r="14" ht="15.75">
       <c r="A14" s="82"/>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -10576,7 +10477,7 @@
     <row r="15" ht="15.75">
       <c r="A15" s="82"/>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -10598,7 +10499,7 @@
     <row r="16" ht="15.75">
       <c r="A16" s="82"/>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -10620,7 +10521,7 @@
     <row r="17" ht="15.75">
       <c r="A17" s="82"/>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -10642,7 +10543,7 @@
     <row r="18" ht="15.75">
       <c r="A18" s="82"/>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -10664,7 +10565,7 @@
     <row r="19" ht="15.75">
       <c r="A19" s="82"/>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -10686,7 +10587,7 @@
     <row r="20" ht="15.75">
       <c r="A20" s="82"/>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -10708,7 +10609,7 @@
     <row r="21" ht="15.75">
       <c r="A21" s="82"/>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -10730,7 +10631,7 @@
     <row r="22" ht="15.75">
       <c r="A22" s="82"/>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -10752,7 +10653,7 @@
     <row r="23" ht="15.75">
       <c r="A23" s="82"/>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -10774,7 +10675,7 @@
     <row r="24" ht="15.75">
       <c r="A24" s="82"/>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -10796,7 +10697,7 @@
     <row r="25" ht="15.75">
       <c r="A25" s="82"/>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -10818,7 +10719,7 @@
     <row r="26" ht="15.75">
       <c r="A26" s="82"/>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -10840,7 +10741,7 @@
     <row r="27" ht="15.75">
       <c r="A27" s="82"/>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -10862,7 +10763,7 @@
     <row r="28" ht="15.75">
       <c r="A28" s="82"/>
       <c r="B28" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -10884,7 +10785,7 @@
     <row r="29" ht="15.75">
       <c r="A29" s="82"/>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -10906,7 +10807,7 @@
     <row r="30" ht="15.75">
       <c r="A30" s="69"/>
       <c r="B30" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -10928,7 +10829,7 @@
     <row r="31" ht="15.75">
       <c r="A31" s="69"/>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -10950,7 +10851,7 @@
     <row r="32" ht="15.75">
       <c r="A32" s="82"/>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -10972,7 +10873,7 @@
     <row r="33" ht="15.75">
       <c r="A33" s="82"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -10994,7 +10895,7 @@
     <row r="34" ht="15.75">
       <c r="A34" s="82"/>
       <c r="B34" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -11016,7 +10917,7 @@
     <row r="35" ht="15.75">
       <c r="A35" s="27"/>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -11037,7 +10938,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="96"/>
       <c r="C36" s="97"/>
@@ -11226,7 +11127,7 @@
       <c r="A1" s="77"/>
       <c r="B1" s="78"/>
       <c r="C1" s="75" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
@@ -11346,7 +11247,7 @@
     <row r="6" ht="15.75">
       <c r="A6" s="82"/>
       <c r="B6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="91"/>
       <c r="D6" s="92"/>
@@ -11368,7 +11269,7 @@
     <row r="7" ht="15.75">
       <c r="A7" s="82"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="89"/>
       <c r="D7" s="90"/>
@@ -11390,7 +11291,7 @@
     <row r="8" ht="15.75">
       <c r="A8" s="82"/>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
@@ -11412,7 +11313,7 @@
     <row r="9" ht="15.75">
       <c r="A9" s="82"/>
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="95"/>
@@ -11434,61 +11335,61 @@
     <row r="10" ht="15">
       <c r="A10" s="82"/>
       <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="H10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="M10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="47" t="s">
-        <v>15</v>
-      </c>
       <c r="P10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="R10" s="47" t="s">
         <v>14</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.75">
       <c r="A11" s="82"/>
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -11510,7 +11411,7 @@
     <row r="12" ht="15.75">
       <c r="A12" s="82"/>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -11532,7 +11433,7 @@
     <row r="13" ht="15.75">
       <c r="A13" s="82"/>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -11554,7 +11455,7 @@
     <row r="14" ht="15.75">
       <c r="A14" s="82"/>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -11576,7 +11477,7 @@
     <row r="15" ht="15.75">
       <c r="A15" s="82"/>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -11598,7 +11499,7 @@
     <row r="16" ht="15.75">
       <c r="A16" s="82"/>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -11620,7 +11521,7 @@
     <row r="17" ht="15.75">
       <c r="A17" s="82"/>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -11642,7 +11543,7 @@
     <row r="18" ht="15.75">
       <c r="A18" s="82"/>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -11664,7 +11565,7 @@
     <row r="19" ht="15.75">
       <c r="A19" s="82"/>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -11686,7 +11587,7 @@
     <row r="20" ht="15.75">
       <c r="A20" s="82"/>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -11708,7 +11609,7 @@
     <row r="21" ht="15.75">
       <c r="A21" s="82"/>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -11730,7 +11631,7 @@
     <row r="22" ht="15.75">
       <c r="A22" s="82"/>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -11752,7 +11653,7 @@
     <row r="23" ht="15.75">
       <c r="A23" s="82"/>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -11774,7 +11675,7 @@
     <row r="24" ht="15.75">
       <c r="A24" s="82"/>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -11796,7 +11697,7 @@
     <row r="25" ht="15.75">
       <c r="A25" s="82"/>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -11818,7 +11719,7 @@
     <row r="26" ht="15.75">
       <c r="A26" s="82"/>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -11840,7 +11741,7 @@
     <row r="27" ht="15.75">
       <c r="A27" s="82"/>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -11862,7 +11763,7 @@
     <row r="28" ht="15.75">
       <c r="A28" s="82"/>
       <c r="B28" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -11884,7 +11785,7 @@
     <row r="29" ht="15.75">
       <c r="A29" s="82"/>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -11906,7 +11807,7 @@
     <row r="30" ht="15.75">
       <c r="A30" s="69"/>
       <c r="B30" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -11928,7 +11829,7 @@
     <row r="31" ht="15.75">
       <c r="A31" s="69"/>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -11950,7 +11851,7 @@
     <row r="32" ht="15.75">
       <c r="A32" s="82"/>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -11972,7 +11873,7 @@
     <row r="33" ht="15.75">
       <c r="A33" s="82"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -11994,7 +11895,7 @@
     <row r="34" ht="15.75">
       <c r="A34" s="82"/>
       <c r="B34" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -12016,7 +11917,7 @@
     <row r="35" ht="15.75">
       <c r="A35" s="27"/>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -12037,7 +11938,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="96"/>
       <c r="C36" s="97"/>
@@ -12226,7 +12127,7 @@
       <c r="A1" s="77"/>
       <c r="B1" s="78"/>
       <c r="C1" s="75" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
@@ -12346,7 +12247,7 @@
     <row r="6" ht="15.75">
       <c r="A6" s="82"/>
       <c r="B6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="91"/>
       <c r="D6" s="92"/>
@@ -12368,7 +12269,7 @@
     <row r="7" ht="15.75">
       <c r="A7" s="82"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="89"/>
       <c r="D7" s="90"/>
@@ -12390,7 +12291,7 @@
     <row r="8" ht="15.75">
       <c r="A8" s="82"/>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
@@ -12412,7 +12313,7 @@
     <row r="9" ht="15.75">
       <c r="A9" s="82"/>
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="95"/>
@@ -12434,61 +12335,61 @@
     <row r="10" ht="15">
       <c r="A10" s="82"/>
       <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="H10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="M10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="47" t="s">
-        <v>15</v>
-      </c>
       <c r="P10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="R10" s="47" t="s">
         <v>14</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.75">
       <c r="A11" s="82"/>
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -12510,7 +12411,7 @@
     <row r="12" ht="15.75">
       <c r="A12" s="82"/>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -12532,7 +12433,7 @@
     <row r="13" ht="15.75">
       <c r="A13" s="82"/>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -12554,7 +12455,7 @@
     <row r="14" ht="15.75">
       <c r="A14" s="82"/>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -12576,7 +12477,7 @@
     <row r="15" ht="15.75">
       <c r="A15" s="82"/>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -12598,7 +12499,7 @@
     <row r="16" ht="15.75">
       <c r="A16" s="82"/>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -12620,7 +12521,7 @@
     <row r="17" ht="15.75">
       <c r="A17" s="82"/>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -12642,7 +12543,7 @@
     <row r="18" ht="15.75">
       <c r="A18" s="82"/>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -12664,7 +12565,7 @@
     <row r="19" ht="15.75">
       <c r="A19" s="82"/>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -12686,7 +12587,7 @@
     <row r="20" ht="15.75">
       <c r="A20" s="82"/>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -12708,7 +12609,7 @@
     <row r="21" ht="15.75">
       <c r="A21" s="82"/>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -12730,7 +12631,7 @@
     <row r="22" ht="15.75">
       <c r="A22" s="82"/>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -12752,7 +12653,7 @@
     <row r="23" ht="15.75">
       <c r="A23" s="82"/>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -12774,7 +12675,7 @@
     <row r="24" ht="15.75">
       <c r="A24" s="82"/>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -12796,7 +12697,7 @@
     <row r="25" ht="15.75">
       <c r="A25" s="82"/>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -12818,7 +12719,7 @@
     <row r="26" ht="15.75">
       <c r="A26" s="82"/>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -12840,7 +12741,7 @@
     <row r="27" ht="15.75">
       <c r="A27" s="82"/>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -12862,7 +12763,7 @@
     <row r="28" ht="15.75">
       <c r="A28" s="82"/>
       <c r="B28" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -12884,7 +12785,7 @@
     <row r="29" ht="15.75">
       <c r="A29" s="82"/>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -12906,7 +12807,7 @@
     <row r="30" ht="15.75">
       <c r="A30" s="69"/>
       <c r="B30" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -12928,7 +12829,7 @@
     <row r="31" ht="15.75">
       <c r="A31" s="69"/>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -12950,7 +12851,7 @@
     <row r="32" ht="15.75">
       <c r="A32" s="82"/>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -12972,7 +12873,7 @@
     <row r="33" ht="15.75">
       <c r="A33" s="82"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -12994,7 +12895,7 @@
     <row r="34" ht="15.75">
       <c r="A34" s="82"/>
       <c r="B34" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -13016,7 +12917,7 @@
     <row r="35" ht="15.75">
       <c r="A35" s="27"/>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -13037,7 +12938,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="96"/>
       <c r="C36" s="97"/>
